--- a/medicine/Mort/Doña_Juana_la_Loca/Doña_Juana_la_Loca.xlsx
+++ b/medicine/Mort/Doña_Juana_la_Loca/Doña_Juana_la_Loca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Do%C3%B1a_Juana_la_Loca</t>
+          <t>Doña_Juana_la_Loca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doña Juana la Loca (Jeanne la Folle) est un célèbre tableau du peintre Francisco Pradilla.
 Pradilla l'envoya de Rome où il avait obtenu une bourse pour travailler à l'Académie d'Espagne (Academia de España en Roma) et il obtint un tel succès que très rapidement apparurent de nombreuses copies oléographiques. Le tableau est un remarquable exemple du genre historique espagnol. Il obtint la Médaille d'honneur à l'Exposition de 1878 et de grands prix dans les villes de Paris, Berlin et Vienne.
